--- a/biology/Botanique/Pimpinella/Pimpinella.xlsx
+++ b/biology/Botanique/Pimpinella/Pimpinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pimpinella (les boucages ou pimpinelles) regroupe des plantes herbacées de la famille des Apiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de Pimpinella fait probablement référence aux propriétés de sa racine et de ses graines. Les racines au goût poivré (saveur âcre et aromatique), les semences aromatiques et excitantes utilisées dans les troubles digestifs autorisent à rattacher Pimpinella à piper, « poivre ». Le nom vernaculaire de boucage rappelle que certaines de ces plantes dégagent une odeur forte rappelant aux odorats sensibles celle du bouc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de Pimpinella fait probablement référence aux propriétés de sa racine et de ses graines. Les racines au goût poivré (saveur âcre et aromatique), les semences aromatiques et excitantes utilisées dans les troubles digestifs autorisent à rattacher Pimpinella à piper, « poivre ». Le nom vernaculaire de boucage rappelle que certaines de ces plantes dégagent une odeur forte rappelant aux odorats sensibles celle du bouc.
 </t>
         </is>
       </c>
@@ -544,16 +558,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flore de France
-Pimpinella anisum L. - anis vert
+          <t>Flore de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pimpinella anisum L. - anis vert
 Pimpinella lutea Desf. - boucage jaune
 Pimpinella major (L.) Huds. - grand boucage
 Pimpinella peregrina L. - boucage voyageur
 Pimpinella saxifraga L. - petit boucage ou boucage saxifrage
 Pimpinella siifolia Leresche - boucage à feuilles de berle
- Pimpinella tragium Vill. - boucage tragium
-Autres espèces
-Pimpinella ledermannii (Afrique)</t>
+ Pimpinella tragium Vill. - boucage tragium</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pimpinella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpinella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pimpinella ledermannii (Afrique)</t>
         </is>
       </c>
     </row>
